--- a/doc/05_ファイル構成一覧表_チームドアラ.xlsx
+++ b/doc/05_ファイル構成一覧表_チームドアラ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\E-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30ED637-1443-4F32-87A2-3F2F13C6B14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328D9436-9366-4503-9DB3-144AF6FB3439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="139">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -159,10 +159,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bim.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BMI計算画面jsp</t>
     <rPh sb="3" eb="5">
       <t>ケイサン</t>
@@ -254,16 +250,810 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>styl.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全画面共通css</t>
     <rPh sb="0" eb="3">
       <t>ゼンガメン</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comstyle.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>siginup.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registchange.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registcomplete.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sports.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meal.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contact.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contactcomplete.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面css</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面css</t>
+    <rPh sb="0" eb="6">
+      <t>シンキトウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Myページcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本人認証css</t>
+    <rPh sb="0" eb="4">
+      <t>ホンニンニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録変更画面css</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクヘンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録変更完了画面css</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食事記録画面css</t>
+    <rPh sb="0" eb="4">
+      <t>ショクジキロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問い合わせ画面css</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問い合わせ完了画面css</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運動記録画面css</t>
+    <rPh sb="0" eb="2">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー画面css</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面共通js</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javascript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Myページ画面js</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bmi.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BMI計算画面js</t>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bmi.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BMI計算画面css</t>
+    <rPh sb="3" eb="7">
+      <t>ケイサンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loginservlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面用</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signupservlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypageservlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ画面用</t>
+    <rPh sb="5" eb="8">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>identiity.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>identityservlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本人認証画面用</t>
+    <rPh sb="0" eb="7">
+      <t>ホンニンニンショウガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registchangeservlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録変更画面用</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクヘンコウガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registcompleteservlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録変更完了画面</t>
+    <rPh sb="0" eb="8">
+      <t>トウロクヘンコウカンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bmiservlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bmi計算用</t>
+    <rPh sb="3" eb="6">
+      <t>ケイサンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sportservlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運動記録画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mealservlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食事記録画面用</t>
+    <rPh sb="0" eb="6">
+      <t>ショクジキロクガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contactservlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問い合わせ画面用</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contactcompleteservlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問い合わせ完了画面</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resultservlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー画面用</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userdao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー関連アクセスする用dao</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contactdao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問い合わせ関連アクセスする用dao</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weightdao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重関連アクセスする用dao</t>
+    <rPh sb="0" eb="4">
+      <t>タイジュウカンレン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sportdao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べ物に関連アクセス用dao</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運動に関連アクセス用dao</t>
+    <rPh sb="0" eb="2">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contact.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weight.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sport.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーデータ1行分のデータを持つエンティティモデル</t>
+    <rPh sb="8" eb="10">
+      <t>ギョウブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userdata.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンタクト1行分のデータを持つエンティティモデル</t>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重1行分のデータと平均体重1行分のデータを持つエンティティモデル</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギョウブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツ1行分のデータと総消費カロリーのデータを持つエンティティモデル</t>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べ物1行分のデータを持つエンティティモデル</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ギョウブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果1行分のデータを持つエンティティモデル</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギョウブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userdatas.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザデータ関連のデータ操作モデル</t>
+    <rPh sb="6" eb="8">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sports.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツ関連のデータ操作モデル</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meal.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食事記録画面js</t>
+    <rPh sb="0" eb="6">
+      <t>ショクジキロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mealdao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meal.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村・渡邉</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡部</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡邉</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bmi.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●loginと本人認証と登録変更画面と登録変更完了画面とお問い合わせとエラーと</t>
+    <rPh sb="7" eb="11">
+      <t>ホンニンニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="18">
+      <t>トウロクヘンコウガメン</t>
+    </rPh>
+    <rPh sb="19" eb="25">
+      <t>トウロクヘンコウカンリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ完了画面</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濱畑</t>
+    <rPh sb="0" eb="2">
+      <t>ハマハタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飯田</t>
+    <rPh sb="0" eb="2">
+      <t>イイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡部・飯田</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡邉・濱畑</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハマハタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡邉・中村</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡邉・渡部</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村・濱畑</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハマハタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濱畑・飯田</t>
+    <rPh sb="0" eb="2">
+      <t>ハマハタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡部・濱畑</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハマハタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -303,7 +1093,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -326,13 +1116,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,6 +1144,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G44"/>
+  <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -674,7 +1478,7 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -694,7 +1498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -711,11 +1515,13 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B58" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -730,9 +1536,14 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -749,9 +1560,14 @@
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -768,9 +1584,11 @@
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -787,9 +1605,11 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -806,9 +1626,11 @@
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -820,14 +1642,16 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -839,14 +1663,16 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -858,14 +1684,16 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G11" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -877,14 +1705,16 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G12" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -896,14 +1726,16 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G13" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -915,46 +1747,56 @@
         <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
@@ -962,14 +1804,20 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -977,14 +1825,20 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -992,14 +1846,20 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
+      <c r="E19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -1007,278 +1867,797 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="1">
+        <f>ROW()-2</f>
+        <v>55</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1287,6 +2666,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1295,7 +2680,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1466,13 +2851,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1480,7 +2876,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1497,21 +2893,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チームドアラ.xlsx
+++ b/doc/05_ファイル構成一覧表_チームドアラ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328D9436-9366-4503-9DB3-144AF6FB3439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CC2222-4D58-44F6-8ED8-09C18B32BF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -473,10 +473,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>loginservlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面用</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -497,14 +493,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>signupservlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mypageservlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マイページ画面用</t>
     <rPh sb="5" eb="8">
       <t>ガメンヨウ</t>
@@ -516,10 +504,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>identityservlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本人認証画面用</t>
     <rPh sb="0" eb="7">
       <t>ホンニンニンショウガメンヨウ</t>
@@ -527,10 +511,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>registchangeservlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録変更画面用</t>
     <rPh sb="0" eb="6">
       <t>トウロクヘンコウガメン</t>
@@ -541,10 +521,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>registcompleteservlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録変更完了画面</t>
     <rPh sb="0" eb="8">
       <t>トウロクヘンコウカンリョウガメン</t>
@@ -552,10 +528,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bmiservlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bmi計算用</t>
     <rPh sb="3" eb="6">
       <t>ケイサンヨウ</t>
@@ -563,10 +535,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sportservlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>運動記録画面用</t>
     <rPh sb="0" eb="2">
       <t>ウンドウ</t>
@@ -583,10 +551,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mealservlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>食事記録画面用</t>
     <rPh sb="0" eb="6">
       <t>ショクジキロクガメン</t>
@@ -597,10 +561,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>contactservlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お問い合わせ画面用</t>
     <rPh sb="1" eb="2">
       <t>ト</t>
@@ -614,10 +574,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>contactcompleteservlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お問い合わせ完了画面</t>
     <rPh sb="1" eb="2">
       <t>ト</t>
@@ -634,10 +590,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>resultservlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラー画面用</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -656,10 +608,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>userdao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー関連アクセスする用dao</t>
     <rPh sb="4" eb="6">
       <t>カンレン</t>
@@ -670,10 +618,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>contactdao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お問い合わせ関連アクセスする用dao</t>
     <rPh sb="1" eb="2">
       <t>ト</t>
@@ -690,10 +634,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>weightdao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>体重関連アクセスする用dao</t>
     <rPh sb="0" eb="4">
       <t>タイジュウカンレン</t>
@@ -704,10 +644,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sportdao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>食べ物に関連アクセス用dao</t>
     <rPh sb="0" eb="1">
       <t>タ</t>
@@ -741,150 +677,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>contact.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weight.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sport.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーデータ1行分のデータを持つエンティティモデル</t>
-    <rPh sb="8" eb="10">
-      <t>ギョウブン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>userdata.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンタクト1行分のデータを持つエンティティモデル</t>
-    <rPh sb="6" eb="7">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体重1行分のデータと平均体重1行分のデータを持つエンティティモデル</t>
-    <rPh sb="0" eb="2">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ギョウブン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スポーツ1行分のデータと総消費カロリーのデータを持つエンティティモデル</t>
-    <rPh sb="5" eb="6">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食べ物1行分のデータを持つエンティティモデル</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ギョウブン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>結果1行分のデータを持つエンティティモデル</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ギョウブン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>userdatas.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザデータ関連のデータ操作モデル</t>
-    <rPh sb="6" eb="8">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sports.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スポーツ関連のデータ操作モデル</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>meal.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -896,14 +688,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mealdao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>meal.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>中村・渡邉</t>
     <rPh sb="0" eb="2">
       <t>ナカムラ</t>
@@ -1054,6 +838,198 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ハマハタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Userdata.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Contact.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weight.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sport.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meal.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Userdatas.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sports.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SignupServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MypageServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IdentityServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RegistchangeServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RegistcompleteServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BmiServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SportServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MealServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ContactServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ContactcompleteServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ContactDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WeightDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SportDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MealDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userdata1行分のデータを持つエンティティモデル</t>
+    <rPh sb="9" eb="11">
+      <t>ギョウブン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contact1行分のデータを持つエンティティモデル</t>
+    <rPh sb="8" eb="9">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weight1行分のデータとaveweight1行分のデータを持つエンティティモデル</t>
+    <rPh sb="7" eb="9">
+      <t>ギョウブン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sport1行分のデータとcaloriesoutのデータを持つエンティティモデル</t>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meal1行分のデータを持つエンティティモデル</t>
+    <rPh sb="5" eb="7">
+      <t>ギョウブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result1行分のデータを持つエンティティモデル</t>
+    <rPh sb="7" eb="9">
+      <t>ギョウブン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userdata関連のデータ操作モデル</t>
+    <rPh sb="8" eb="10">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sport関連のデータ操作モデル</t>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1465,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1516,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
@@ -1537,10 +1513,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
@@ -1561,10 +1537,10 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
@@ -1585,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
@@ -1606,7 +1582,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
@@ -1627,7 +1603,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
@@ -1642,13 +1618,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
@@ -1669,7 +1645,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
@@ -1690,7 +1666,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
@@ -1711,7 +1687,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
@@ -1732,7 +1708,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
@@ -1753,7 +1729,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
@@ -1774,7 +1750,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
@@ -1795,7 +1771,7 @@
         <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1816,7 +1792,7 @@
         <v>46</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1837,7 +1813,7 @@
         <v>47</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1852,13 +1828,13 @@
         <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1879,7 +1855,7 @@
         <v>49</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1900,7 +1876,7 @@
         <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1921,7 +1897,7 @@
         <v>64</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1942,7 +1918,7 @@
         <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1963,7 +1939,7 @@
         <v>51</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1984,7 +1960,7 @@
         <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -2005,7 +1981,7 @@
         <v>53</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -2026,7 +2002,7 @@
         <v>55</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -2041,13 +2017,13 @@
         <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -2068,7 +2044,7 @@
         <v>59</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -2089,7 +2065,7 @@
         <v>62</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -2103,13 +2079,13 @@
         <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -2124,13 +2100,13 @@
         <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -2145,13 +2121,13 @@
         <v>66</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -2166,13 +2142,13 @@
         <v>66</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -2187,13 +2163,13 @@
         <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -2208,13 +2184,13 @@
         <v>66</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -2229,13 +2205,13 @@
         <v>66</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -2250,13 +2226,13 @@
         <v>66</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -2271,13 +2247,13 @@
         <v>66</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -2292,13 +2268,13 @@
         <v>66</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -2313,13 +2289,13 @@
         <v>66</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -2334,13 +2310,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -2355,13 +2331,13 @@
         <v>66</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2373,16 +2349,16 @@
         <v>65</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2394,16 +2370,16 @@
         <v>65</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2415,16 +2391,16 @@
         <v>65</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2436,16 +2412,16 @@
         <v>65</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2457,16 +2433,16 @@
         <v>65</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -2478,16 +2454,16 @@
         <v>65</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2499,16 +2475,16 @@
         <v>65</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2520,16 +2496,16 @@
         <v>65</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -2541,16 +2517,16 @@
         <v>65</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -2562,16 +2538,16 @@
         <v>65</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -2583,16 +2559,16 @@
         <v>65</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -2604,16 +2580,16 @@
         <v>65</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -2625,16 +2601,16 @@
         <v>65</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -2672,15 +2648,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2851,6 +2818,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
@@ -2869,14 +2845,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2893,4 +2861,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チームドアラ.xlsx
+++ b/doc/05_ファイル構成一覧表_チームドアラ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CC2222-4D58-44F6-8ED8-09C18B32BF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF84BE1-3EFB-4543-A385-1A3D9A71681F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Identity.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本人認証jsp</t>
     <rPh sb="0" eb="2">
       <t>ホンニン</t>
@@ -1031,6 +1027,10 @@
     <rPh sb="11" eb="13">
       <t>ソウサ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>identity.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1441,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1492,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
@@ -1513,10 +1513,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
@@ -1537,10 +1537,10 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
@@ -1555,13 +1555,13 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
@@ -1576,13 +1576,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
@@ -1597,13 +1597,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
@@ -1618,13 +1618,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
@@ -1639,13 +1639,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
@@ -1660,13 +1660,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
@@ -1681,13 +1681,13 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
@@ -1702,13 +1702,13 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
@@ -1723,13 +1723,13 @@
         <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
@@ -1738,19 +1738,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
@@ -1759,19 +1759,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1780,19 +1780,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1801,19 +1801,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1822,19 +1822,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1843,19 +1843,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1864,19 +1864,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1885,19 +1885,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1906,19 +1906,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1927,19 +1927,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1948,19 +1948,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1969,19 +1969,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1990,19 +1990,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -2011,19 +2011,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -2032,19 +2032,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -2053,19 +2053,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -2073,19 +2073,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -2094,19 +2094,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -2115,19 +2115,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -2136,19 +2136,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -2157,19 +2157,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -2178,19 +2178,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -2199,19 +2199,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -2220,19 +2220,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -2241,19 +2241,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -2262,19 +2262,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -2283,19 +2283,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -2304,19 +2304,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -2325,19 +2325,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2346,19 +2346,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2367,19 +2367,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2388,19 +2388,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2409,19 +2409,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2430,19 +2430,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -2451,19 +2451,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2472,19 +2472,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2493,19 +2493,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -2514,19 +2514,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -2535,19 +2535,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -2556,19 +2556,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -2577,19 +2577,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -2598,19 +2598,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -2642,9 +2642,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2819,27 +2822,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2864,9 +2855,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チームドアラ.xlsx
+++ b/doc/05_ファイル構成一覧表_チームドアラ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF84BE1-3EFB-4543-A385-1A3D9A71681F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C65E10A-A66D-43C2-BCBA-C167BF1D8AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="143">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -961,35 +961,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>weight1行分のデータとaveweight1行分のデータを持つエンティティモデル</t>
-    <rPh sb="7" eb="9">
-      <t>ギョウブン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sport1行分のデータとcaloriesoutのデータを持つエンティティモデル</t>
-    <rPh sb="6" eb="7">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>meal1行分のデータを持つエンティティモデル</t>
     <rPh sb="5" eb="7">
       <t>ギョウブン</t>
@@ -1031,6 +1002,54 @@
   </si>
   <si>
     <t>identity.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aveweight.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aveweight1行分のデータを持つエンティティモデル</t>
+    <rPh sb="10" eb="12">
+      <t>ギョウブン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weight1行分のデータを持つエンティティモデル</t>
+    <rPh sb="7" eb="9">
+      <t>ギョウブン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>caloriesout.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sport1行分のデータを持つエンティティモデル</t>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>caloriesout1行分のデータを持つエンティティモデル</t>
+    <rPh sb="12" eb="14">
+      <t>ギョウブン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1441,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1555,7 +1574,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -2502,7 +2521,7 @@
         <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>97</v>
@@ -2523,7 +2542,7 @@
         <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>96</v>
@@ -2544,7 +2563,7 @@
         <v>109</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>90</v>
@@ -2565,7 +2584,7 @@
         <v>110</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>91</v>
@@ -2583,10 +2602,10 @@
         <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>90</v>
@@ -2604,10 +2623,10 @@
         <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>96</v>
@@ -2618,22 +2637,42 @@
         <f>ROW()-2</f>
         <v>55</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2642,12 +2681,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2822,15 +2858,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2855,18 +2903,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チームドアラ.xlsx
+++ b/doc/05_ファイル構成一覧表_チームドアラ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C65E10A-A66D-43C2-BCBA-C167BF1D8AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31ADDA7-811C-4839-BA7E-88D257BA8D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -264,10 +264,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>siginup.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mypage.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1050,6 +1046,10 @@
     <rPh sb="12" eb="14">
       <t>ギョウブン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup.css</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1511,7 +1511,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
@@ -1532,10 +1532,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
@@ -1556,10 +1556,10 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
@@ -1574,13 +1574,13 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
@@ -1601,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
@@ -1622,7 +1622,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
@@ -1637,13 +1637,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
@@ -1664,7 +1664,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
@@ -1685,7 +1685,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
@@ -1706,7 +1706,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
@@ -1727,7 +1727,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
@@ -1748,7 +1748,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
@@ -1769,7 +1769,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
@@ -1787,10 +1787,10 @@
         <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1805,13 +1805,13 @@
         <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1826,13 +1826,13 @@
         <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1847,13 +1847,13 @@
         <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1868,13 +1868,13 @@
         <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1889,13 +1889,13 @@
         <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1910,13 +1910,13 @@
         <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1931,13 +1931,13 @@
         <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1952,13 +1952,13 @@
         <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1973,13 +1973,13 @@
         <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1994,13 +1994,13 @@
         <v>31</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -2015,13 +2015,13 @@
         <v>31</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -2030,19 +2030,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -2051,19 +2051,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -2072,19 +2072,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -2092,19 +2092,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -2113,19 +2113,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -2134,19 +2134,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -2155,19 +2155,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -2176,19 +2176,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -2197,19 +2197,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -2218,19 +2218,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -2239,19 +2239,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -2260,19 +2260,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -2281,19 +2281,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -2302,19 +2302,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -2323,19 +2323,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -2344,19 +2344,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2365,19 +2365,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2386,19 +2386,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2407,19 +2407,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2428,19 +2428,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2449,19 +2449,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -2470,19 +2470,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2491,19 +2491,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2512,19 +2512,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -2533,19 +2533,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -2554,19 +2554,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -2575,19 +2575,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -2596,19 +2596,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -2617,19 +2617,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -2638,19 +2638,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
@@ -2659,19 +2659,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2681,9 +2681,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2858,27 +2861,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2903,9 +2894,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>